--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail11 Features.xlsx
@@ -4699,7 +4699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4710,29 +4710,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4753,115 +4751,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4878,72 +4866,66 @@
         <v>6.998296102609383e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.8021888322614517</v>
+        <v>2.829416389037866e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.4584576680492445</v>
+        <v>1.55015527497005e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.829416389037866e-07</v>
+        <v>0.00664077640235942</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.55015527497005e-06</v>
+        <v>0.2320473738780504</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.00664077640235942</v>
+        <v>0.05381991331951304</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2320473738780504</v>
+        <v>1.760107950497694</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05381991331951304</v>
+        <v>1.342350701028592</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.805282750792196</v>
+        <v>28.45111503511143</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.342350701028592</v>
+        <v>2.999138066101562e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>28.45111503511143</v>
+        <v>3609325432.201763</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.999138066101562e-16</v>
+        <v>3.027639505321122e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3609325432.201763</v>
+        <v>3907.046161541046</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.027639505321122e-08</v>
+        <v>2.20375926837728e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3907.046161541046</v>
+        <v>8.333660319217104</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.20375926837728e-05</v>
+        <v>1.757019262789221</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.333660319217104</v>
+        <v>0.001530508482869141</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.757019262789221</v>
+        <v>8.011507940181319</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.001530508482869141</v>
+        <v>0.9624194932737249</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.011507940181319</v>
+        <v>0.7952320807171628</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9624194932737249</v>
+        <v>11</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7952320807171628</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>8.71479097081145</v>
       </c>
     </row>
@@ -4958,72 +4940,66 @@
         <v>7.016485383199536e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.7930613889009036</v>
+        <v>2.62415462900854e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4639557404409564</v>
+        <v>1.550002897176655e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.62415462900854e-07</v>
+        <v>-0.01008150238275483</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.550002897176655e-06</v>
+        <v>0.2001238416728186</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01008150238275483</v>
+        <v>0.04011143468578254</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2001238416728186</v>
+        <v>1.76185233826794</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04011143468578254</v>
+        <v>1.342805252669443</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.807124039631868</v>
+        <v>28.11652852955467</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.342805252669443</v>
+        <v>3.070942220307206e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>28.11652852955467</v>
+        <v>3524354525.894102</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.070942220307206e-16</v>
+        <v>3.100613489632377e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3524354525.894102</v>
+        <v>3814.440309920071</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.100613489632377e-08</v>
+        <v>1.243782945983634e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3814.440309920071</v>
+        <v>8.329946371754357</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1.243782945983634e-05</v>
+        <v>1.385174361558489</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.329946371754357</v>
+        <v>0.0008630361921053096</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.385174361558489</v>
+        <v>8.360653082659121</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0008630361921053096</v>
+        <v>0.9625646192177951</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.360653082659121</v>
+        <v>0.8069512321899091</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9625646192177951</v>
+        <v>11</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8069512321899091</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>9.643018998255615</v>
       </c>
     </row>
@@ -5038,72 +5014,66 @@
         <v>7.14562141201371e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.7358517539806062</v>
+        <v>2.683799297927288e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.4876680777431761</v>
+        <v>1.548825192729413e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.683799297927288e-07</v>
+        <v>-0.02245494529883688</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.548825192729413e-06</v>
+        <v>0.1754985760212211</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02245494529883688</v>
+        <v>0.03128129201824876</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1754985760212211</v>
+        <v>1.759108667757199</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03128129201824876</v>
+        <v>1.338808421645963</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.805110867686026</v>
+        <v>27.99297543453827</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.338808421645963</v>
+        <v>3.098110589956307e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>27.99297543453827</v>
+        <v>3491764002.781314</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.098110589956307e-16</v>
+        <v>3.129195532136596e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3491764002.781314</v>
+        <v>3777.345266550411</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.129195532136596e-08</v>
+        <v>9.847775959591306e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3777.345266550411</v>
+        <v>8.907404110841574</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.847775959591306e-06</v>
+        <v>1.258958254337152</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.907404110841574</v>
+        <v>0.0007813407432632593</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.258958254337152</v>
+        <v>8.475379628060354</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0007813407432632593</v>
+        <v>0.9619373157690162</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.475379628060354</v>
+        <v>0.7962158775382762</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9619373157690162</v>
+        <v>11</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7962158775382762</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>10.11786772902715</v>
       </c>
     </row>
@@ -5118,72 +5088,66 @@
         <v>7.305698770540418e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6969401830999726</v>
+        <v>2.733630391033728e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5113128202780102</v>
+        <v>1.546851628231924e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.733630391033728e-07</v>
+        <v>-0.03171039736559467</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.546851628231924e-06</v>
+        <v>0.1566949709046925</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03171039736559467</v>
+        <v>0.02553908473244051</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1566949709046925</v>
+        <v>1.758076307918563</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02553908473244051</v>
+        <v>1.334667174110526</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.804995681195879</v>
+        <v>27.89165777644227</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.334667174110526</v>
+        <v>3.120659513190361e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>27.89165777644227</v>
+        <v>3464561260.997104</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.120659513190361e-16</v>
+        <v>3.153409795835287e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3464561260.997104</v>
+        <v>3745.785262000632</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.153409795835287e-08</v>
+        <v>8.948715249307913e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3745.785262000632</v>
+        <v>9.281999165669266</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>8.948715249307913e-06</v>
+        <v>1.250496054080342</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.281999165669266</v>
+        <v>0.0007709811128286029</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.250496054080342</v>
+        <v>8.528846784025351</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0007709811128286029</v>
+        <v>0.9609886805751613</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.528846784025351</v>
+        <v>0.7986821139859311</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9609886805751613</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7986821139859311</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>10.36913839523037</v>
       </c>
     </row>
@@ -5198,72 +5162,66 @@
         <v>7.446163094060508e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.6915204954542499</v>
+        <v>2.774106146259182e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4836223709706498</v>
+        <v>1.544114371996837e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.774106146259182e-07</v>
+        <v>-0.04214960600303598</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.544114371996837e-06</v>
+        <v>0.1292302528483554</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04214960600303598</v>
+        <v>0.0184560489878059</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1292302528483554</v>
+        <v>1.760642316671804</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0184560489878059</v>
+        <v>1.334416415151117</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.805416641493452</v>
+        <v>27.83726473231533</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.334416415151117</v>
+        <v>3.132866747441264e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>27.83726473231533</v>
+        <v>3450729021.32736</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.132866747441264e-16</v>
+        <v>3.166043137946062e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>3450729021.32736</v>
+        <v>3730.470722050607</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.166043137946062e-08</v>
+        <v>8.936667499488743e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3730.470722050607</v>
+        <v>8.75403202235559</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>8.936667499488743e-06</v>
+        <v>1.273997225747903</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.75403202235559</v>
+        <v>0.0006848443254698281</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.273997225747903</v>
+        <v>8.582269684000131</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0006848443254698281</v>
+        <v>0.961263188110938</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.582269684000131</v>
+        <v>0.8467843562502189</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.961263188110938</v>
+        <v>11</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8467843562502189</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>10.38822677524288</v>
       </c>
     </row>
@@ -5278,72 +5236,66 @@
         <v>7.519162212991072e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7115036118647849</v>
+        <v>2.805511891195479e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.375617426788259</v>
+        <v>1.540611041199985e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.805511891195479e-07</v>
+        <v>-0.051024020023919</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.540611041199985e-06</v>
+        <v>0.1053628713568931</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.051024020023919</v>
+        <v>0.01369188369981408</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1053628713568931</v>
+        <v>1.757403300480418</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01369188369981408</v>
+        <v>1.330466739845098</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.802199295354408</v>
+        <v>27.83402058537474</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.330466739845098</v>
+        <v>3.133597081913525e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>27.83402058537474</v>
+        <v>3449297445.286692</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.133597081913525e-16</v>
+        <v>3.16721684912622e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>3449297445.286692</v>
+        <v>3728.245030270978</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.16721684912622e-08</v>
+        <v>1.240359074616016e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3728.245030270978</v>
+        <v>8.153384500737696</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1.240359074616016e-05</v>
+        <v>1.701382491167398</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.153384500737696</v>
+        <v>0.0008245619217991321</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.701382491167398</v>
+        <v>8.492762571139567</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0008245619217991321</v>
+        <v>0.9618035036833567</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.492762571139567</v>
+        <v>0.9027863613729958</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9618035036833567</v>
+        <v>11</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9027863613729958</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>9.953974481920914</v>
       </c>
     </row>
@@ -5358,72 +5310,66 @@
         <v>7.500102464849468e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7328821742373712</v>
+        <v>2.825721696682749e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.2197405459670501</v>
+        <v>1.536506553366632e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.825721696682749e-07</v>
+        <v>-0.05772177171502282</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.536506553366632e-06</v>
+        <v>0.09037043168421753</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05772177171502282</v>
+        <v>0.01149386262731005</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.09037043168421753</v>
+        <v>1.752997434940555</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01149386262731005</v>
+        <v>1.329057054505957</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.799584114314352</v>
+        <v>27.87897717120232</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.329057054505957</v>
+        <v>3.123498989736118e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>27.87897717120232</v>
+        <v>3460211222.598588</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.123498989736118e-16</v>
+        <v>3.157151938745199e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>3460211222.598588</v>
+        <v>3739.784613960702</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.157151938745199e-08</v>
+        <v>1.203170459343217e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3739.784613960702</v>
+        <v>8.069238816515433</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1.203170459343217e-05</v>
+        <v>1.511764622327022</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.069238816515433</v>
+        <v>0.0007834157499238648</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.511764622327022</v>
+        <v>8.433787595269392</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0007834157499238648</v>
+        <v>0.9629228913691324</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.433787595269392</v>
+        <v>0.7871668366644162</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9629228913691324</v>
+        <v>11</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.7871668366644162</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>9.799801139347608</v>
       </c>
     </row>
@@ -5438,72 +5384,66 @@
         <v>7.393645565701473e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.7377328193722019</v>
+        <v>2.838755908908321e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.07040038551533945</v>
+        <v>1.532017698531694e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.838755908908321e-07</v>
+        <v>-0.06244267267116198</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.532017698531694e-06</v>
+        <v>0.08447656382045272</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06244267267116198</v>
+        <v>0.01103444464503058</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08447656382045272</v>
+        <v>1.749299978071826</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01103444464503058</v>
+        <v>1.326390437317928</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.79409403810425</v>
+        <v>28.09007130468731</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.326390437317928</v>
+        <v>3.076729807732797e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>28.09007130468731</v>
+        <v>3512207047.524954</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.076729807732797e-16</v>
+        <v>3.110272787511851e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>3512207047.524954</v>
+        <v>3795.330312330847</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.110272787511851e-08</v>
+        <v>9.491839654773127e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3795.330312330847</v>
+        <v>8.883584340960455</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>9.491839654773127e-06</v>
+        <v>1.264972106862611</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.883584340960455</v>
+        <v>0.0007490776733561977</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.264972106862611</v>
+        <v>8.49897471806471</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0007490776733561977</v>
+        <v>0.9637028046327915</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.49897471806471</v>
+        <v>0.7972582564038747</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9637028046327915</v>
+        <v>11</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.7972582564038747</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>10.17908403965987</v>
       </c>
     </row>
@@ -5518,72 +5458,66 @@
         <v>7.218949115467963e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.7174955217970574</v>
+        <v>2.848240084135006e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.0334603019069184</v>
+        <v>1.527325167236859e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.848240084135006e-07</v>
+        <v>-0.06566815224451288</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.527325167236859e-06</v>
+        <v>0.08433175260810452</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06566815224451288</v>
+        <v>0.01142464650841368</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08433175260810452</v>
+        <v>1.741028270208796</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01142464650841368</v>
+        <v>1.317975366491642</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.78665275765123</v>
+        <v>28.24777402674107</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.317975366491642</v>
+        <v>3.042471940563174e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>28.24777402674107</v>
+        <v>3549727150.117981</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.042471940563174e-16</v>
+        <v>3.0769624288746e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>3549727150.117981</v>
+        <v>3833.685887686929</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.0769624288746e-08</v>
+        <v>8.469330883922971e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3833.685887686929</v>
+        <v>9.199661016633359</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>8.469330883922971e-06</v>
+        <v>1.253157689388302</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.199661016633359</v>
+        <v>0.000716791341282198</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.253157689388302</v>
+        <v>8.555626946328637</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.000716791341282198</v>
+        <v>0.9642661296361815</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.555626946328637</v>
+        <v>0.8191157533407463</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9642661296361815</v>
+        <v>3</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.8191157533407463</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>10.43690099972385</v>
       </c>
     </row>
@@ -5598,72 +5532,66 @@
         <v>6.999496288905733e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.6717459773818437</v>
+        <v>2.837980767041209e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.07526464211263661</v>
+        <v>1.522580391082548e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.837980767041209e-07</v>
+        <v>-0.06755966739871201</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.522580391082548e-06</v>
+        <v>0.08703588634878173</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06755966739871201</v>
+        <v>0.01213996003486807</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08703588634878173</v>
+        <v>1.746628690653361</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01213996003486807</v>
+        <v>1.318424233830793</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.789475805706255</v>
+        <v>28.44352409281177</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.318424233830793</v>
+        <v>3.000739085851502e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>28.44352409281177</v>
+        <v>3600220728.574409</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.000739085851502e-16</v>
+        <v>3.03412179227546e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>3600220728.574409</v>
+        <v>3889.434761063106</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.03412179227546e-08</v>
+        <v>8.178933951466115e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>3889.434761063106</v>
+        <v>8.71669119766255</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>8.178933951466115e-06</v>
+        <v>1.257017338319578</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.71669119766255</v>
+        <v>0.0006214411713420028</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.257017338319578</v>
+        <v>8.614557389419947</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0006214411713420028</v>
+        <v>0.9624369874007849</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.614557389419947</v>
+        <v>0.8801666401517001</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9624369874007849</v>
+        <v>3</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8801666401517001</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>10.47756464296005</v>
       </c>
     </row>
@@ -5678,72 +5606,66 @@
         <v>6.755085804645765e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.6050375867173007</v>
+        <v>2.775723048198593e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.05468429619370019</v>
+        <v>1.517903060997343e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.775723048198593e-07</v>
+        <v>-0.06823861601748188</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.517903060997343e-06</v>
+        <v>0.09074308913967181</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06823861601748188</v>
+        <v>0.01289042748066689</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09074308913967181</v>
+        <v>1.744007247577449</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01289042748066689</v>
+        <v>1.313782856650966</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.786138071023377</v>
+        <v>28.94701217489294</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.313782856650966</v>
+        <v>2.897260561834131e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>28.94701217489294</v>
+        <v>3727935872.735739</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.897260561834131e-16</v>
+        <v>2.930033286733583e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3727935872.735739</v>
+        <v>4026.469566857289</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.930033286733583e-08</v>
+        <v>1.014724764702961e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>4026.469566857289</v>
+        <v>8.03437057332172</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1.014724764702961e-05</v>
+        <v>1.673749214365592</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.03437057332172</v>
+        <v>0.0006550161042302458</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.673749214365592</v>
+        <v>8.5804156513538</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0006550161042302458</v>
+        <v>0.9614688006193589</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.5804156513538</v>
+        <v>0.7353098981575436</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9614688006193589</v>
+        <v>3</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.7353098981575436</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>10.19915908118377</v>
       </c>
     </row>
@@ -5758,72 +5680,66 @@
         <v>6.501152978247386e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5249570000671465</v>
+        <v>2.678463902034291e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.01720478864476771</v>
+        <v>1.513386620617802e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.678463902034291e-07</v>
+        <v>-0.06786277118175134</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.513386620617802e-06</v>
+        <v>0.09463708303222668</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06786277118175134</v>
+        <v>0.01356016001346451</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09463708303222668</v>
+        <v>1.744769742880451</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01356016001346451</v>
+        <v>1.30666392763386</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.786162021089117</v>
+        <v>30.06092661576681</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.30666392763386</v>
+        <v>2.686521468776554e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>30.06092661576681</v>
+        <v>4018629216.841174</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.686521468776554e-16</v>
+        <v>2.717820056176299e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>4018629216.841174</v>
+        <v>4338.565817949811</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.717820056176299e-08</v>
+        <v>2.075269884260894e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>4338.565817949811</v>
+        <v>7.005802286810986</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>2.075269884260894e-05</v>
+        <v>2.513784424273916</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.005802286810986</v>
+        <v>0.001018568725510258</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.513784424273916</v>
+        <v>8.090911881631351</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.001018568725510258</v>
+        <v>0.9602427094505555</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.090911881631351</v>
+        <v>0.8947966452211681</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9602427094505555</v>
+        <v>3</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.8947966452211681</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>8.782283326856536</v>
       </c>
     </row>
@@ -5838,72 +5754,66 @@
         <v>6.247859335231766e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4394117400115706</v>
+        <v>2.561702937049232e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.1253192262893825</v>
+        <v>1.509096349867202e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.561702937049232e-07</v>
+        <v>-0.06663385670931041</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.509096349867202e-06</v>
+        <v>0.09852218159129451</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06663385670931041</v>
+        <v>0.01414457805952541</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.09852218159129451</v>
+        <v>1.74511201296796</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01414457805952541</v>
+        <v>1.301702452246452</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.786045351750459</v>
+        <v>32.44069144996164</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.301702452246452</v>
+        <v>2.306826000147923e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>32.44069144996164</v>
+        <v>4679227728.850984</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.306826000147923e-16</v>
+        <v>2.334171686969402e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>4679227728.850984</v>
+        <v>5050.83523666861</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.334171686969402e-08</v>
+        <v>7.249041771116903e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>5050.83523666861</v>
+        <v>6.128605735891926</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>7.249041771116903e-05</v>
+        <v>1.694440328049478</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.128605735891926</v>
+        <v>0.002722726190354297</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.694440328049478</v>
+        <v>5.169844745338102</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.002722726190354297</v>
+        <v>0.9622415990726855</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.169844745338102</v>
+        <v>0.9069215547877783</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9622415990726855</v>
+        <v>3</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9069215547877783</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>3.098471421845597</v>
       </c>
     </row>
@@ -5918,72 +5828,66 @@
         <v>6.000774611004092e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3542513965503553</v>
+        <v>2.437833469614926e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.2568632593671794</v>
+        <v>1.505068664382585e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.437833469614926e-07</v>
+        <v>-0.06479170876958107</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.505068664382585e-06</v>
+        <v>0.1025043195122341</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06479170876958107</v>
+        <v>0.01470241124515154</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1025043195122341</v>
+        <v>1.921559101954498</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01470241124515154</v>
+        <v>2.207932476878195</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.918156643949799</v>
+        <v>6.004553984930988</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.207932476878195</v>
+        <v>1.641236921676203e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.004553984930988</v>
+        <v>4865276640.817615</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.641236921676203e-17</v>
+        <v>2.477393116631859e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>4865276640.817615</v>
+        <v>388.4958260843951</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.477393116631859e-08</v>
+        <v>9.911121509608604e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>388.4958260843951</v>
+        <v>8.22203829187317</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>9.911121509608604e-05</v>
+        <v>1.337719826404353</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.22203829187317</v>
+        <v>0.006700107806954586</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.337719826404353</v>
+        <v>3.960882368194825</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.006700107806954586</v>
+        <v>0.9607464477554993</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.960882368194825</v>
+        <v>1.278605314085703</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9607464477554993</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.278605314085703</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.76401898140217</v>
       </c>
     </row>
@@ -5998,72 +5902,66 @@
         <v>5.76079097574781e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2735170959300051</v>
+        <v>2.314229326728906e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.4020032037251688</v>
+        <v>1.501332164454292e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.314229326728906e-07</v>
+        <v>-0.06208578781731985</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.501332164454292e-06</v>
+        <v>0.1074192491227728</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06208578781731985</v>
+        <v>0.01538985149825687</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1074192491227728</v>
+        <v>1.915663033581493</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01538985149825687</v>
+        <v>2.126131294031687</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.904080892683351</v>
+        <v>6.098969532948842</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.126131294031687</v>
+        <v>4.371924900985411e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>6.098969532948842</v>
+        <v>1841495131.5972</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.371924900985411e-17</v>
+        <v>6.556619068759383e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1841495131.5972</v>
+        <v>148.2565341711896</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.556619068759383e-08</v>
+        <v>9.260498639997199e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>148.2565341711896</v>
+        <v>7.196606480010577</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.260498639997199e-05</v>
+        <v>2.43972996827758</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.196606480010577</v>
+        <v>0.00479611826244798</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.43972996827758</v>
+        <v>4.321071698199482</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.00479611826244798</v>
+        <v>0.9604129959028144</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.321071698199482</v>
+        <v>1.404059257681466</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9604129959028144</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.404059257681466</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.708510049965976</v>
       </c>
     </row>
@@ -6078,72 +5976,66 @@
         <v>5.524178151294807e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1994025594167018</v>
+        <v>2.193997586530763e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.5509468474610957</v>
+        <v>1.497934680303001e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.193997586530763e-07</v>
+        <v>-0.0580449065321855</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.497934680303001e-06</v>
+        <v>0.1147043030746149</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0580449065321855</v>
+        <v>0.01652046479728659</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1147043030746149</v>
+        <v>1.908917287679129</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01652046479728659</v>
+        <v>1.931427537840282</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.893631414366015</v>
+        <v>4.51935403808606</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.931427537840282</v>
+        <v>1.102035083353999e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.51935403808606</v>
+        <v>726048499.9986025</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.102035083353999e-16</v>
+        <v>1.660284772519321e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>726048499.9986025</v>
+        <v>58.09338536985579</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.660284772519321e-07</v>
+        <v>0.0001387435781245189</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>58.09338536985579</v>
+        <v>10.1701108950501</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001387435781245189</v>
+        <v>2.061417319212386</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.1701108950501</v>
+        <v>0.0143504086199421</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.061417319212386</v>
+        <v>3.88477683374341</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0143504086199421</v>
+        <v>0.9592090086409946</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.88477683374341</v>
+        <v>1.421811535712979</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9592090086409946</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.421811535712979</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.9461284446643794</v>
       </c>
     </row>
@@ -6158,72 +6050,66 @@
         <v>5.287540096311586e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1297692808356367</v>
+        <v>2.077684223038023e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.6919612308145169</v>
+        <v>1.494939150964506e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.077684223038023e-07</v>
+        <v>-0.05251205249407088</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.494939150964506e-06</v>
+        <v>0.1251988508704378</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05251205249407088</v>
+        <v>0.01842425122424774</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1251988508704378</v>
+        <v>1.861428113874623</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01842425122424774</v>
+        <v>1.891220698312493</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.826891652563539</v>
+        <v>4.633281080560624</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.891220698312493</v>
+        <v>1.348025125867128e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.633281080560624</v>
+        <v>608472272.6677473</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.348025125867128e-16</v>
+        <v>1.948686730002045e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>608472272.6677473</v>
+        <v>49.9090809467674</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.948686730002045e-07</v>
+        <v>0.0001141233334503296</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>49.9090809467674</v>
+        <v>9.680267525734241</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001141233334503296</v>
+        <v>1.235139924675096</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.680267525734241</v>
+        <v>0.01069422132724119</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.235139924675096</v>
+        <v>3.371854714615158</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01069422132724119</v>
+        <v>0.9580577826776659</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.371854714615158</v>
+        <v>1.500236167234745</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9580577826776659</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.500236167234745</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.5240226508834142</v>
       </c>
     </row>
@@ -6238,72 +6124,66 @@
         <v>5.055631052299018e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.05903334268391472</v>
+        <v>1.964726814600988e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.8184602829098706</v>
+        <v>1.492356946719749e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.964726814600988e-07</v>
+        <v>-0.04780020404120817</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.492356946719749e-06</v>
+        <v>0.1333987713564298</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04780020404120817</v>
+        <v>0.02007647256397166</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1333987713564298</v>
+        <v>1.64779063810304</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02007647256397166</v>
+        <v>1.170652304805016</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.706271361391999</v>
+        <v>30.99040598257017</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.170652304805016</v>
+        <v>2.270861422456194e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>30.99040598257017</v>
+        <v>1309457179.37607</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.270861422456194e-15</v>
+        <v>8.16173124197737e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1309457179.37607</v>
+        <v>3893.796359710804</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>8.16173124197737e-08</v>
+        <v>0.000149183220778186</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>3893.796359710804</v>
+        <v>7.107618384069062</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.000149183220778186</v>
+        <v>2.829847781154524</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.107618384069062</v>
+        <v>0.007536473616019229</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>2.829847781154524</v>
+        <v>4.207543890377441</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.007536473616019229</v>
+        <v>0.9559050688307581</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.207543890377441</v>
+        <v>0.8119631197651578</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9559050688307581</v>
+        <v>5</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8119631197651578</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>1.621995922429952</v>
       </c>
     </row>
@@ -6318,72 +6198,66 @@
         <v>4.84085004493933e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.01051182458098838</v>
+        <v>1.855510762638071e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.9359978899008787</v>
+        <v>1.490051099913883e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.855510762638071e-07</v>
+        <v>-0.04590214025119106</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.490051099913883e-06</v>
+        <v>0.1378345565161029</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04590214025119106</v>
+        <v>0.02110210310514839</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1378345565161029</v>
+        <v>1.647475149986351</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02110210310514839</v>
+        <v>1.171579562367191</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.704741488809524</v>
+        <v>27.52563348008428</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.171579562367191</v>
+        <v>2.878528398887856e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>27.52563348008428</v>
+        <v>1033051555.29004</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.878528398887856e-15</v>
+        <v>1.034551808772361e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1033051555.29004</v>
+        <v>3071.952599646998</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.034551808772361e-07</v>
+        <v>7.300720502653014e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3071.952599646998</v>
+        <v>8.023593422373885</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>7.300720502653014e-05</v>
+        <v>2.09430171916296</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.023593422373885</v>
+        <v>0.004700061598320338</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>2.09430171916296</v>
+        <v>6.301185628022575</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.004700061598320338</v>
+        <v>0.9567430356365082</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>6.301185628022575</v>
+        <v>0.6739543945559252</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9567430356365082</v>
+        <v>5</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.6739543945559252</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>5.252409581615889</v>
       </c>
     </row>
@@ -6398,72 +6272,66 @@
         <v>4.651113355353424e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.06949033363510027</v>
+        <v>1.750147859949134e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.049101618408064</v>
+        <v>1.487866167083216e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.750147859949134e-07</v>
+        <v>-0.04670170108286988</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.487866167083216e-06</v>
+        <v>0.1424884188280862</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04670170108286988</v>
+        <v>0.02247715177630026</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1424884188280862</v>
+        <v>1.651791247995025</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02247715177630026</v>
+        <v>1.174490772312175</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.709439369553218</v>
+        <v>25.85126546225856</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.174490772312175</v>
+        <v>3.263484460423272e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>25.85126546225856</v>
+        <v>911262799.3703179</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.263484460423272e-15</v>
+        <v>1.172842627620087e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>911262799.3703179</v>
+        <v>2709.997135373413</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.172842627620087e-07</v>
+        <v>3.876557200477835e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2709.997135373413</v>
+        <v>8.850166664316806</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>3.876557200477835e-05</v>
+        <v>1.300626321162372</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.850166664316806</v>
+        <v>0.003036330871246099</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.300626321162372</v>
+        <v>7.151996203323428</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.003036330871246099</v>
+        <v>0.9558738600234046</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>7.151996203323428</v>
+        <v>0.8099539413149212</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9558738600234046</v>
+        <v>5</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8099539413149212</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>7.138619891573706</v>
       </c>
     </row>
@@ -6478,72 +6346,66 @@
         <v>4.494945276462603e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.1082606099733636</v>
+        <v>1.64725084274358e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.163127979949368</v>
+        <v>1.485664078433988e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.64725084274358e-07</v>
+        <v>-0.05021169821730795</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.485664078433988e-06</v>
+        <v>0.1505764665505908</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05021169821730795</v>
+        <v>0.02517936615040915</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1505764665505908</v>
+        <v>1.656569573490239</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02517936615040915</v>
+        <v>1.178238618584099</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.713795170626757</v>
+        <v>24.65591762127149</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.178238618584099</v>
+        <v>3.587590151729112e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>24.65591762127149</v>
+        <v>829010622.7162751</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.587590151729112e-15</v>
+        <v>1.289249038297317e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>829010622.7162751</v>
+        <v>2465.6022301702</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.289249038297317e-07</v>
+        <v>2.995476560949727e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2465.6022301702</v>
+        <v>9.83340516748525</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>2.995476560949727e-05</v>
+        <v>1.153934956940326</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.83340516748525</v>
+        <v>0.002896501737473733</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.153934956940326</v>
+        <v>7.470517325857753</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.002896501737473733</v>
+        <v>0.9543794702373984</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>7.470517325857753</v>
+        <v>0.779952108406756</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9543794702373984</v>
+        <v>5</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.779952108406756</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>8.057587864310612</v>
       </c>
     </row>
@@ -6558,72 +6420,66 @@
         <v>4.390703425509291e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.1248837579588261</v>
+        <v>1.541501128465072e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.277033536875939</v>
+        <v>1.483311235164509e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.541501128465072e-07</v>
+        <v>-0.05640319567452363</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.483311235164509e-06</v>
+        <v>0.164896240636077</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05640319567452363</v>
+        <v>0.03034184895280922</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.164896240636077</v>
+        <v>1.679010151298488</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03034184895280922</v>
+        <v>1.202287822891826</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.730284461964229</v>
+        <v>26.9829205256214</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.202287822891826</v>
+        <v>3.972256853224845e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>26.9829205256214</v>
+        <v>810561636.2148992</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.972256853224845e-15</v>
+        <v>1.285979481076098e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>810561636.2148992</v>
+        <v>2609.813134942523</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.285979481076098e-07</v>
+        <v>2.51224094194688e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2609.813134942523</v>
+        <v>10.30469584487473</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>2.51224094194688e-05</v>
+        <v>1.138519745483205</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.30469584487473</v>
+        <v>0.00266766717059744</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.138519745483205</v>
+        <v>7.677402760477566</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.00266766717059744</v>
+        <v>0.9532915633276494</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>7.677402760477566</v>
+        <v>0.8083542359321235</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9532915633276494</v>
+        <v>6</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8083542359321235</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>8.644025771822545</v>
       </c>
     </row>
@@ -6638,72 +6494,66 @@
         <v>4.367091146577754e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.1430509605839928</v>
+        <v>1.63899355876729e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.337471508648083</v>
+        <v>1.48070487059701e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.63899355876729e-07</v>
+        <v>-0.062595446647325</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.48070487059701e-06</v>
+        <v>0.1779926629351322</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.062595446647325</v>
+        <v>0.0355751491035538</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1779926629351322</v>
+        <v>1.628846739255165</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.0355751491035538</v>
+        <v>1.224441849449562</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.676074876704316</v>
+        <v>27.88217935060573</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.224441849449562</v>
+        <v>4.199474431791818e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>27.88217935060573</v>
+        <v>752856279.3823221</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.199474431791818e-15</v>
+        <v>1.423334683696504e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>752856279.3823221</v>
+        <v>2380.230936943333</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.423334683696504e-07</v>
+        <v>2.652584653194544e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2380.230936943333</v>
+        <v>9.731681281339997</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>2.652584653194544e-05</v>
+        <v>1.24940949175357</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.731681281339997</v>
+        <v>0.002512146756729215</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.24940949175357</v>
+        <v>7.735878644159124</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.002512146756729215</v>
+        <v>0.9501073506134928</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>7.735878644159124</v>
+        <v>0.8873570656844075</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9501073506134928</v>
+        <v>6</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8873570656844075</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>8.521895153558951</v>
       </c>
     </row>
@@ -6718,72 +6568,66 @@
         <v>4.436532248253225e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.2024602589215353</v>
+        <v>1.808049042014217e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.237373539729866</v>
+        <v>1.477839751566467e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.808049042014217e-07</v>
+        <v>-0.06796100335610766</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.477839751566467e-06</v>
+        <v>0.1858677863591775</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.06796100335610766</v>
+        <v>0.03914363586969204</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1858677863591775</v>
+        <v>1.627804707785253</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03914363586969204</v>
+        <v>1.224347827963815</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.673544727052226</v>
+        <v>27.93154545634471</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.224347827963815</v>
+        <v>4.184643279808261e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>27.93154545634471</v>
+        <v>755526714.9184608</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.184643279808261e-15</v>
+        <v>1.418301747836603e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>755526714.9184608</v>
+        <v>2388.68065871876</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.418301747836603e-07</v>
+        <v>4.892244388361434e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2388.68065871876</v>
+        <v>9.507111275393772</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>4.892244388361434e-05</v>
+        <v>1.636465224681928</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.507111275393772</v>
+        <v>0.004421863152972274</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.636465224681928</v>
+        <v>7.172174617592732</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.004421863152972274</v>
+        <v>0.9484551694107339</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>7.172174617592732</v>
+        <v>0.8462302777388691</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9484551694107339</v>
+        <v>11</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.8462302777388691</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>7.125354198807152</v>
       </c>
     </row>
@@ -6798,72 +6642,66 @@
         <v>4.600827457982568e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.330490794324291</v>
+        <v>1.973212727186802e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.9036730140668912</v>
+        <v>1.474681686027379e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.973212727186802e-07</v>
+        <v>-0.07150941768209748</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.474681686027379e-06</v>
+        <v>0.1878307119043223</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.07150941768209748</v>
+        <v>0.04038024736941002</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1878307119043223</v>
+        <v>1.594345043888482</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.04038024736941002</v>
+        <v>1.225365230560711</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.631007353655046</v>
+        <v>26.99340489687906</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.225365230560711</v>
+        <v>4.480567621321675e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>26.99340489687906</v>
+        <v>705791730.7069993</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.480567621321675e-15</v>
+        <v>1.517820709810078e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>705791730.7069993</v>
+        <v>2231.958768763795</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.517820709810078e-07</v>
+        <v>5.635007711958067e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2231.958768763795</v>
+        <v>9.433210202572385</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>5.635007711958067e-05</v>
+        <v>1.555236820825007</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.433210202572385</v>
+        <v>0.005014337236326305</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.555236820825007</v>
+        <v>6.721853869210666</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.005014337236326305</v>
+        <v>0.9422459756133764</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>6.721853869210666</v>
+        <v>0.82973154527513</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9422459756133764</v>
+        <v>12</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.82973154527513</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>5.923329072905797</v>
       </c>
     </row>
@@ -6878,72 +6716,66 @@
         <v>4.842572915505208e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4957132024004238</v>
+        <v>2.08813442929688e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.4409404967149495</v>
+        <v>1.471290267150193e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.08813442929688e-07</v>
+        <v>-0.07188502653106056</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.471290267150193e-06</v>
+        <v>0.1822497841762283</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.07188502653106056</v>
+        <v>0.03837627125268959</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1822497841762283</v>
+        <v>1.587186069630242</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.03837627125268959</v>
+        <v>1.225987314993839</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.621371278234809</v>
+        <v>26.09547286513602</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.225987314993839</v>
+        <v>4.794220807484265e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>26.09547286513602</v>
+        <v>659621829.554134</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.794220807484265e-15</v>
+        <v>1.624049860749339e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>659621829.554134</v>
+        <v>2085.970066316643</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.624049860749339e-07</v>
+        <v>3.968250812140494e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>2085.970066316643</v>
+        <v>10.09355484960427</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>3.968250812140494e-05</v>
+        <v>1.199652657542229</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.09355484960427</v>
+        <v>0.004042847955269433</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.199652657542229</v>
+        <v>6.979176614293914</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.004042847955269433</v>
+        <v>0.9403020407921973</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>6.979176614293914</v>
+        <v>0.8050460985674808</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9403020407921973</v>
+        <v>12</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.8050460985674808</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>6.416796609022359</v>
       </c>
     </row>
@@ -6958,72 +6790,66 @@
         <v>5.12953433812975e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.647485749226293</v>
+        <v>2.196271337882089e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.04087831132342412</v>
+        <v>1.467743865962949e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.196271337882089e-07</v>
+        <v>-0.07023920002505378</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.467743865962949e-06</v>
+        <v>0.1735244912898224</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.07023920002505378</v>
+        <v>0.03504147144070135</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1735244912898224</v>
+        <v>1.584981494113972</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03504147144070135</v>
+        <v>1.225228179821924</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.618487838700114</v>
+        <v>25.72240314717516</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.225228179821924</v>
+        <v>4.934297073880188e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>25.72240314717516</v>
+        <v>640896919.2451479</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.934297073880188e-15</v>
+        <v>1.671495737446139e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>640896919.2451479</v>
+        <v>2026.756903415095</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.671495737446139e-07</v>
+        <v>3.23945321858501e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>2026.756903415095</v>
+        <v>11.04325419054704</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>3.23945321858501e-05</v>
+        <v>1.115595421954185</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>11.04325419054704</v>
+        <v>0.003950625386120665</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.115595421954185</v>
+        <v>7.1848877138771</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.003950625386120665</v>
+        <v>0.9409724007308172</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>7.1848877138771</v>
+        <v>0.9024151692084981</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9409724007308172</v>
+        <v>12</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.9024151692084981</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>7.011950763576845</v>
       </c>
     </row>
@@ -7038,72 +6864,66 @@
         <v>5.437063041323674e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.7596003342506114</v>
+        <v>2.285411081787486e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.2058655757579828</v>
+        <v>1.464104992773598e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.285411081787486e-07</v>
+        <v>-0.06749133352901067</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.464104992773598e-06</v>
+        <v>0.1641716325323678</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.06749133352901067</v>
+        <v>0.03150641893964176</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1641716325323678</v>
+        <v>1.585357238226957</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03150641893964176</v>
+        <v>1.226725921588651</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.617806722065989</v>
+        <v>25.47625437500728</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.226725921588651</v>
+        <v>5.030106973946283e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>25.47625437500728</v>
+        <v>628698563.4820391</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.030106973946283e-15</v>
+        <v>1.703937298001097e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>628698563.4820391</v>
+        <v>1988.209557857146</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.703937298001097e-07</v>
+        <v>3.415943449950361e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>1988.209557857146</v>
+        <v>11.24125159005619</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>3.415943449950361e-05</v>
+        <v>1.161946214674195</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>11.24125159005619</v>
+        <v>0.004316582126654566</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.161946214674195</v>
+        <v>7.209757320947745</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.004316582126654566</v>
+        <v>0.9410016548792411</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>7.209757320947745</v>
+        <v>0.9060791695479081</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9410016548792411</v>
+        <v>12</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.9060791695479081</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>6.875817966044991</v>
       </c>
     </row>
@@ -7118,72 +6938,66 @@
         <v>5.746199493071778e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.8274447766521973</v>
+        <v>2.34520694545518e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.297496983375158</v>
+        <v>1.460415358742072e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.34520694545518e-07</v>
+        <v>-0.06443561914257555</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.460415358742072e-06</v>
+        <v>0.1554321148503292</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.06443561914257555</v>
+        <v>0.02831085439161445</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1554321148503292</v>
+        <v>1.585042976539123</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02831085439161445</v>
+        <v>1.223893194597835</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.618624969370629</v>
+        <v>25.34829522663451</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.223893194597835</v>
+        <v>5.081019493231878e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>25.34829522663451</v>
+        <v>622400130.2694927</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.081019493231878e-15</v>
+        <v>1.721174771729572e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>622400130.2694927</v>
+        <v>1968.295097817959</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.721174771729572e-07</v>
+        <v>5.291402518822843e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1968.295097817959</v>
+        <v>10.91561788893869</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>5.291402518822843e-05</v>
+        <v>1.368259339096794</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.91561788893869</v>
+        <v>0.006304743876358104</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.368259339096794</v>
+        <v>6.755137157944787</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.006304743876358104</v>
+        <v>0.9442667015386239</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>6.755137157944787</v>
+        <v>0.9247635324785632</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9442667015386239</v>
+        <v>12</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.9247635324785632</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>5.773119570353916</v>
       </c>
     </row>
@@ -7198,72 +7012,66 @@
         <v>6.044693426821917e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.8560557796120519</v>
+        <v>2.37956452166956e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.2694866407668086</v>
+        <v>1.456717399713712e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.37956452166956e-07</v>
+        <v>-0.06095940003633682</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.456717399713712e-06</v>
+        <v>0.1477554867860636</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.06095940003633682</v>
+        <v>0.02554773277602547</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1477554867860636</v>
+        <v>1.584796800550067</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02554773277602547</v>
+        <v>1.22122323187709</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.619569138778752</v>
+        <v>25.43171279600935</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.22122323187709</v>
+        <v>5.047742051117593e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>25.43171279600935</v>
+        <v>626503443.647493</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.047742051117593e-15</v>
+        <v>1.709909701757405e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>626503443.647493</v>
+        <v>1981.271892996387</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.709909701757405e-07</v>
+        <v>8.791307574837195e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1981.271892996387</v>
+        <v>10.12101026444308</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>8.791307574837195e-05</v>
+        <v>1.584787282705507</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.12101026444308</v>
+        <v>0.009005362619450457</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.584787282705507</v>
+        <v>5.712012146473171</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.009005362619450457</v>
+        <v>0.9452549432296461</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>5.712012146473171</v>
+        <v>0.9142958669071737</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9452549432296461</v>
+        <v>12</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.9142958669071737</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>3.561145638727502</v>
       </c>
     </row>
@@ -7278,72 +7086,66 @@
         <v>6.324592117921523e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.852580765789856</v>
+        <v>2.391206614012163e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.1606133239737297</v>
+        <v>1.453061049823435e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.391206614012163e-07</v>
+        <v>-0.05729825703163244</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.453061049823435e-06</v>
+        <v>0.141291099364038</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05729825703163244</v>
+        <v>0.02324628058281768</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.141291099364038</v>
+        <v>1.578386989878209</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02324628058281768</v>
+        <v>1.222588776541596</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.611721526466322</v>
+        <v>25.78431616364924</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.222588776541596</v>
+        <v>4.910629163836854e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>25.78431616364924</v>
+        <v>644032009.085474</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4.910629163836854e-15</v>
+        <v>1.66333482187725e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>644032009.085474</v>
+        <v>2036.817155880625</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.66333482187725e-07</v>
+        <v>7.844105089317135e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>2036.817155880625</v>
+        <v>10.17189454036512</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>7.844105089317135e-05</v>
+        <v>1.40932179486825</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>10.17189454036512</v>
+        <v>0.00811609461232652</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.40932179486825</v>
+        <v>5.310404405410753</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.00811609461232652</v>
+        <v>0.9435798305401736</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>5.310404405410753</v>
+        <v>0.8846785589451314</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9435798305401736</v>
+        <v>17</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.8846785589451314</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>2.40822651957587</v>
       </c>
     </row>
@@ -7720,7 +7522,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.289788504307946</v>
+        <v>1.299242727205065</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.49432334067664</v>
@@ -7809,7 +7611,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.303551386505999</v>
+        <v>1.31416017787708</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.504537551873092</v>
@@ -7898,7 +7700,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.320203026420668</v>
+        <v>1.331917052230832</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.442043674564475</v>
@@ -7987,7 +7789,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.343624565260781</v>
+        <v>1.355124049845531</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.449364762135475</v>
@@ -8076,7 +7878,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.336885803001176</v>
+        <v>1.349392612501882</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.438764949662969</v>
@@ -8165,7 +7967,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.338397189138878</v>
+        <v>1.351343557396717</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.44109935233892</v>
@@ -8254,7 +8056,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.340177853540639</v>
+        <v>1.353699253374864</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.438648985497712</v>
@@ -8343,7 +8145,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.399257367493427</v>
+        <v>1.403281359068726</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.365077666487595</v>
@@ -8432,7 +8234,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.548554382258066</v>
+        <v>1.564167146789603</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.29375500062215</v>
@@ -8521,7 +8323,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.527556559689298</v>
+        <v>1.534823720364127</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.612492182617536</v>
@@ -8610,7 +8412,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.522619850773717</v>
+        <v>1.527620663019954</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.803679497684297</v>
@@ -8699,7 +8501,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.526545938851645</v>
+        <v>1.536853299332319</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.589735546497081</v>
@@ -8788,7 +8590,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.544699537311442</v>
+        <v>1.567953145662641</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.566388471660325</v>
@@ -8877,7 +8679,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.568288814166081</v>
+        <v>1.585344571482032</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.588577281484734</v>
@@ -8966,7 +8768,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.589350521458482</v>
+        <v>1.604173498933311</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.600617965052842</v>
@@ -9055,7 +8857,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.606372045316808</v>
+        <v>1.615576268849359</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.670728455329425</v>
@@ -9144,7 +8946,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.600422165542036</v>
+        <v>1.6059422881811</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.521789261537364</v>
@@ -9233,7 +9035,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.61643155727593</v>
+        <v>1.624782523038993</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.467765907270296</v>
@@ -9322,7 +9124,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.617558128621355</v>
+        <v>1.623993707715893</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.505277043351008</v>
@@ -9411,7 +9213,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.627543802540357</v>
+        <v>1.633424138325581</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.674740309455303</v>
@@ -9500,7 +9302,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.62762035751184</v>
+        <v>1.634288293981803</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.522960092846207</v>
@@ -9589,7 +9391,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.647500702547338</v>
+        <v>1.645300820964703</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.404837455539483</v>
@@ -9678,7 +9480,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.673638118790115</v>
+        <v>1.66692599225781</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.428342845175194</v>
@@ -9767,7 +9569,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.661480960628315</v>
+        <v>1.659800840004244</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.618294858765817</v>
@@ -9856,7 +9658,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.667444826046878</v>
+        <v>1.670012984787544</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.54018682265959</v>
@@ -9945,7 +9747,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.667030002306934</v>
+        <v>1.666111283129619</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.752570684609315</v>
@@ -10034,7 +9836,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.690505244582529</v>
+        <v>1.68741345044224</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.236982309242462</v>
@@ -10123,7 +9925,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.686934712601988</v>
+        <v>1.685164843085543</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.218439999645505</v>
@@ -10212,7 +10014,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.674050871340604</v>
+        <v>1.679882001635124</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.361123951781668</v>
@@ -10301,7 +10103,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.674450841931042</v>
+        <v>1.681683966650366</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.595300805502753</v>
@@ -10390,7 +10192,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.681560076242956</v>
+        <v>1.69108373683276</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.266594431991689</v>
@@ -10479,7 +10281,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.698440644879998</v>
+        <v>1.711354044287521</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.556949073954846</v>
@@ -10568,7 +10370,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.700888293913159</v>
+        <v>1.710169505315022</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.084639342096872</v>
@@ -10657,7 +10459,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.709835161343342</v>
+        <v>1.719626510174703</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.251647032204513</v>
@@ -10746,7 +10548,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.649552733656349</v>
+        <v>1.668158899313337</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.201208146210912</v>
@@ -10835,7 +10637,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.587641888753968</v>
+        <v>1.613803990647588</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.129050606078593</v>
@@ -10924,7 +10726,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.572050205752509</v>
+        <v>1.601437110155009</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.201519487707607</v>
@@ -11013,7 +10815,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.568924913813966</v>
+        <v>1.598664252922019</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.118283632217871</v>
@@ -11102,7 +10904,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.575342186778206</v>
+        <v>1.601270633164707</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.124414620284565</v>
@@ -11191,7 +10993,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.575256903624698</v>
+        <v>1.601156403148045</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.111209570722363</v>
@@ -11280,7 +11082,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.587865208909829</v>
+        <v>1.61115062812316</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.125186608749007</v>
@@ -11369,7 +11171,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.583997456358468</v>
+        <v>1.60595690009826</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.052650985127097</v>
@@ -11458,7 +11260,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.587843113348574</v>
+        <v>1.606836805505968</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.104441052096089</v>
@@ -11547,7 +11349,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.601215161618631</v>
+        <v>1.620980670125249</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.113708450020271</v>
@@ -11636,7 +11438,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.600299300969218</v>
+        <v>1.620293686314552</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.142635284648267</v>
@@ -11725,7 +11527,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.601308915882087</v>
+        <v>1.622916755799178</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.148747586293097</v>
@@ -11814,7 +11616,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.592025736963785</v>
+        <v>1.610576344022064</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.144520117762966</v>
@@ -11903,7 +11705,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.589484593806409</v>
+        <v>1.604963870695866</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.16930695786479</v>
@@ -11992,7 +11794,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.592487780732608</v>
+        <v>1.606761850353568</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.219995216059192</v>
@@ -12081,7 +11883,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.653047496997382</v>
+        <v>1.651335981970265</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.541459887946161</v>
@@ -12170,7 +11972,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.718771194355362</v>
+        <v>1.708417854389164</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.525218968370974</v>
@@ -12259,7 +12061,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.726760576143272</v>
+        <v>1.716566316673284</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.869210329156889</v>
@@ -12348,7 +12150,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.733870002502568</v>
+        <v>1.72403478039257</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.095762906508026</v>
@@ -12437,7 +12239,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.734291749320327</v>
+        <v>1.72560768480303</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.973175670001289</v>
@@ -12526,7 +12328,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.724678046046604</v>
+        <v>1.720495089866146</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.829032750508939</v>
@@ -12615,7 +12417,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.699151126638215</v>
+        <v>1.699201043650031</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.11676178490389</v>
@@ -12704,7 +12506,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.689666875549374</v>
+        <v>1.689452540972794</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.079469015290325</v>
@@ -12793,7 +12595,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.679328231511954</v>
+        <v>1.675887999902751</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.012182163945188</v>
@@ -12882,7 +12684,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.675108457341415</v>
+        <v>1.671018870969032</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.038282149193858</v>
@@ -12971,7 +12773,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.671281658112846</v>
+        <v>1.66727349932607</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.03814467993848</v>
@@ -13060,7 +12862,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.664399722735573</v>
+        <v>1.66188629828323</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.126527942522284</v>
@@ -13149,7 +12951,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.672051658950062</v>
+        <v>1.672082777205544</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.036259946512436</v>
@@ -13238,7 +13040,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.666021163678888</v>
+        <v>1.671431083918674</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.045144884325598</v>
@@ -13327,7 +13129,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.661240035492329</v>
+        <v>1.665250302186957</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.014060922478394</v>
@@ -13416,7 +13218,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.674152140244262</v>
+        <v>1.678766603979391</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.071671411007903</v>
@@ -13505,7 +13307,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.661682490620945</v>
+        <v>1.667837017904487</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.017002760002129</v>
@@ -13594,7 +13396,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.665919476566704</v>
+        <v>1.668087937103579</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.02407877799237</v>
@@ -13683,7 +13485,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.664187837424368</v>
+        <v>1.66563687547276</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.998785983582796</v>
@@ -13772,7 +13574,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.650793297270098</v>
+        <v>1.650248064842128</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.069438873741571</v>
@@ -13861,7 +13663,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.608622180629757</v>
+        <v>1.615458134131601</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.008335695134944</v>
@@ -13950,7 +13752,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.611261473361122</v>
+        <v>1.611746338870182</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.060404455279413</v>
@@ -14039,7 +13841,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.587867522185165</v>
+        <v>1.602112467488529</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.037563365201379</v>
@@ -14128,7 +13930,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.593995414561977</v>
+        <v>1.615992515882507</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.818377315608844</v>
@@ -14217,7 +14019,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.594479518292242</v>
+        <v>1.61589194447829</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.838482326461702</v>
@@ -14306,7 +14108,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.58282057924</v>
+        <v>1.612915149228332</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.570424947926306</v>
@@ -14395,7 +14197,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.58603229647272</v>
+        <v>1.613559862580928</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.682927968984186</v>
@@ -14681,7 +14483,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.620061219295022</v>
+        <v>1.634394564596266</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.216022982033618</v>
@@ -14770,7 +14572,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.689419412960854</v>
+        <v>1.695926804306128</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.02926870792844</v>
@@ -14859,7 +14661,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.769010817886142</v>
+        <v>1.76591017901305</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.112177980666173</v>
@@ -14948,7 +14750,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.826517354590163</v>
+        <v>1.812982985042131</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.226296096785346</v>
@@ -15037,7 +14839,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.82440567786278</v>
+        <v>1.813434283318366</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.278406512947832</v>
@@ -15126,7 +14928,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.833938565490038</v>
+        <v>1.822100124126473</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.255386332791314</v>
@@ -15215,7 +15017,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.839763217845158</v>
+        <v>1.824672414879376</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.256180812668312</v>
@@ -15304,7 +15106,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.855109480419207</v>
+        <v>1.838474555486985</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.163717900425597</v>
@@ -15393,7 +15195,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.750745431675929</v>
+        <v>1.726900068947282</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.067698051076324</v>
@@ -15482,7 +15284,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.694773133934356</v>
+        <v>1.648404284096448</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.320587382472232</v>
@@ -15571,7 +15373,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.683771657200114</v>
+        <v>1.630090630424672</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.180865642275392</v>
@@ -15660,7 +15462,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.684853546028788</v>
+        <v>1.638444808272792</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.75283769809948</v>
@@ -15749,7 +15551,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.716007113636764</v>
+        <v>1.684154891142433</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.240849563611289</v>
@@ -15838,7 +15640,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.726492320737799</v>
+        <v>1.699857741962613</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.215388781007337</v>
@@ -15927,7 +15729,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.728973561416813</v>
+        <v>1.700313578991898</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.350937030994809</v>
@@ -16016,7 +15818,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.731218680610219</v>
+        <v>1.700183994052982</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.319271922629353</v>
@@ -16105,7 +15907,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.729302603565799</v>
+        <v>1.692972596281844</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.333087009333209</v>
@@ -16194,7 +15996,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.739357979605325</v>
+        <v>1.701682386018862</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.72038190017378</v>
@@ -16283,7 +16085,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.733881064925516</v>
+        <v>1.697702433523829</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.830014867700016</v>
@@ -16372,7 +16174,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.729390760192587</v>
+        <v>1.694023516933886</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.634839367679079</v>
@@ -16461,7 +16263,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.719285914012997</v>
+        <v>1.688596738369844</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.521726729873853</v>
@@ -16550,7 +16352,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.707564357582554</v>
+        <v>1.683508933677802</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.159635123671301</v>
@@ -16639,7 +16441,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.711932315801809</v>
+        <v>1.687546117222799</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.52968782580573</v>
@@ -16728,7 +16530,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.688904032370108</v>
+        <v>1.66679357036118</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.494023399824229</v>
@@ -16817,7 +16619,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.680954047913066</v>
+        <v>1.652650083222751</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.39466798890531</v>
@@ -16906,7 +16708,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.674096412509205</v>
+        <v>1.646478763953826</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.27563139245577</v>
@@ -16995,7 +16797,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.683268445859603</v>
+        <v>1.654823003918921</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.582684815758951</v>
@@ -17084,7 +16886,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.673539163335305</v>
+        <v>1.651396681797761</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.44778537268526</v>
@@ -17173,7 +16975,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.669557747209148</v>
+        <v>1.648925967725049</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.482182828869112</v>
@@ -17262,7 +17064,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.667278769505679</v>
+        <v>1.648113562488124</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.197735392149569</v>
@@ -17351,7 +17153,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.662397229171999</v>
+        <v>1.646171491599258</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.199503897385428</v>
@@ -17440,7 +17242,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.651211083545933</v>
+        <v>1.639602278195046</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.312489841901126</v>
@@ -17529,7 +17331,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.648383378043253</v>
+        <v>1.633439732363583</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.423683731813185</v>
@@ -17618,7 +17420,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.662887409382128</v>
+        <v>1.646404459241972</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.275583278586563</v>
@@ -17707,7 +17509,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.65501724803716</v>
+        <v>1.638631377899964</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.288249146547248</v>
@@ -17796,7 +17598,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.627584776888283</v>
+        <v>1.616227761287991</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.06970034097084</v>
@@ -17885,7 +17687,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.631037482254504</v>
+        <v>1.620367050406142</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.077762578266245</v>
@@ -17974,7 +17776,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.628312037801597</v>
+        <v>1.621624761402086</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.040184769821764</v>
@@ -18063,7 +17865,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.633588625811245</v>
+        <v>1.62667054072015</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.790168866777345</v>
@@ -18152,7 +17954,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.635363468921615</v>
+        <v>1.631704891506916</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.027428867448369</v>
@@ -18241,7 +18043,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.646705623623262</v>
+        <v>1.645096117418046</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.794440507389965</v>
@@ -18330,7 +18132,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.64612995535658</v>
+        <v>1.641207798929229</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.858724302713191</v>
@@ -18419,7 +18221,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.645159150880704</v>
+        <v>1.63434074028792</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.016189594550947</v>
@@ -18508,7 +18310,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.648442886153407</v>
+        <v>1.635675421293143</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.797970915306903</v>
@@ -18597,7 +18399,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.654746643336707</v>
+        <v>1.639853503594844</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.885529929947055</v>
@@ -18686,7 +18488,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.664965759887918</v>
+        <v>1.646289624804041</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.704996708236844</v>
@@ -18775,7 +18577,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.683184300677046</v>
+        <v>1.661631648235997</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.871149641213525</v>
@@ -18864,7 +18666,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.691856531837651</v>
+        <v>1.673175757801881</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.095224470351686</v>
@@ -18953,7 +18755,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.692250766747021</v>
+        <v>1.670833687665625</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.698469643945326</v>
@@ -19042,7 +18844,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.695698344819886</v>
+        <v>1.670401250949775</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.802463612088302</v>
@@ -19131,7 +18933,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.747142459069006</v>
+        <v>1.710542398789127</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.863092367171755</v>
@@ -19220,7 +19022,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.749882384914186</v>
+        <v>1.713481107245673</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.368595001447987</v>
@@ -19309,7 +19111,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.757776525929491</v>
+        <v>1.715859034030106</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.615855750514881</v>
@@ -19398,7 +19200,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.768825718979775</v>
+        <v>1.723335560657937</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.326288383704953</v>
@@ -19487,7 +19289,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.769262863730009</v>
+        <v>1.733323845009513</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.036538594826085</v>
@@ -19576,7 +19378,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.760904053293052</v>
+        <v>1.722735952193291</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.808127368193478</v>
@@ -19665,7 +19467,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.73882854341863</v>
+        <v>1.709657827864676</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.999008528165462</v>
@@ -19754,7 +19556,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.743732404845795</v>
+        <v>1.717015717171707</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.806758704484503</v>
@@ -19843,7 +19645,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.749986810398531</v>
+        <v>1.726770320711323</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.826747217418717</v>
@@ -19932,7 +19734,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.753500003722877</v>
+        <v>1.73056556228721</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.852809437922732</v>
@@ -20021,7 +19823,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.74146252685498</v>
+        <v>1.721153565036373</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.860882121089938</v>
@@ -20110,7 +19912,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.739198046592613</v>
+        <v>1.721187722723942</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.867150601301332</v>
@@ -20199,7 +20001,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.728295397485878</v>
+        <v>1.708978094912106</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.857473093118082</v>
@@ -20288,7 +20090,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.731972653824406</v>
+        <v>1.713829024999222</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.862197844826401</v>
@@ -20377,7 +20179,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.747405120222159</v>
+        <v>1.733624046010088</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.861331841013967</v>
@@ -20466,7 +20268,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.729127709749785</v>
+        <v>1.717998557310991</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.857837379950752</v>
@@ -20555,7 +20357,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.716822095721676</v>
+        <v>1.710027120546114</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.875385982090826</v>
@@ -20644,7 +20446,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.719995592129152</v>
+        <v>1.714377731287267</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.869357291456872</v>
@@ -20733,7 +20535,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.709326924640775</v>
+        <v>1.703274619291217</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.886508961339883</v>
@@ -20822,7 +20624,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.70957659123882</v>
+        <v>1.699156812835967</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.885235132961008</v>
@@ -20911,7 +20713,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.713983329815859</v>
+        <v>1.699267787346594</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.917737872341167</v>
@@ -21000,7 +20802,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.719042710841886</v>
+        <v>1.71133786174102</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.902715603906676</v>
@@ -21089,7 +20891,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.709368862896141</v>
+        <v>1.703814839463381</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.768943141019506</v>
@@ -21178,7 +20980,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.693414256998964</v>
+        <v>1.686711598491462</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.921749659651222</v>
@@ -21267,7 +21069,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.665126060702497</v>
+        <v>1.658113304965261</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.794411971930441</v>
@@ -21356,7 +21158,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.663534884131261</v>
+        <v>1.66163974456033</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.058485702389883</v>
@@ -21642,7 +21444,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.731175547100431</v>
+        <v>1.728971430332682</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.330175470571269</v>
@@ -21731,7 +21533,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.778089751612133</v>
+        <v>1.766200687440969</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.148540853090029</v>
@@ -21820,7 +21622,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.796392210430432</v>
+        <v>1.782676936752398</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.234515596801236</v>
@@ -21909,7 +21711,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.805335999840353</v>
+        <v>1.789635219118353</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.26133303140469</v>
@@ -21998,7 +21800,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.803117480304619</v>
+        <v>1.788980476336201</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.256107393919872</v>
@@ -22087,7 +21889,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.800558985677948</v>
+        <v>1.78817498891283</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.226494136390532</v>
@@ -22176,7 +21978,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.800979423414592</v>
+        <v>1.789223139308706</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.24463146759458</v>
@@ -22265,7 +22067,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.806680899530923</v>
+        <v>1.792264358181108</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.237148979572822</v>
@@ -22354,7 +22156,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.643374196784748</v>
+        <v>1.63431174866507</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.071767213136785</v>
@@ -22443,7 +22245,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.549694109420032</v>
+        <v>1.519705038885477</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.775285414870857</v>
@@ -22532,7 +22334,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.532215310710668</v>
+        <v>1.496719580331521</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.773939661866462</v>
@@ -22621,7 +22423,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.528174384694721</v>
+        <v>1.489416510571044</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.676030815775997</v>
@@ -22710,7 +22512,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.560789602436798</v>
+        <v>1.541280051766904</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.51810314623064</v>
@@ -22799,7 +22601,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.571753823890323</v>
+        <v>1.556511558260079</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.737626825274514</v>
@@ -22888,7 +22690,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.579836191979451</v>
+        <v>1.560813058222694</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.849416262503644</v>
@@ -22977,7 +22779,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.584594451302856</v>
+        <v>1.564319098333498</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.958639994179377</v>
@@ -23066,7 +22868,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.576784487794213</v>
+        <v>1.551892748187969</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.700812152439136</v>
@@ -23155,7 +22957,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.588834190398681</v>
+        <v>1.558351090780987</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.877194980462544</v>
@@ -23244,7 +23046,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.574045387213395</v>
+        <v>1.550588526551076</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.000724872370852</v>
@@ -23333,7 +23135,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.556159886800737</v>
+        <v>1.533627013977112</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.756467485843958</v>
@@ -23422,7 +23224,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.55792415970558</v>
+        <v>1.53008567869514</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.883592753891385</v>
@@ -23511,7 +23313,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.567587041592507</v>
+        <v>1.540477712585889</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.061472165545097</v>
@@ -23600,7 +23402,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.577330012614482</v>
+        <v>1.552164865983846</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.71092155325461</v>
@@ -23689,7 +23491,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.576357137614944</v>
+        <v>1.552426850285881</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.007331480782971</v>
@@ -23778,7 +23580,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.584755702043656</v>
+        <v>1.563413023994622</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.828393691961851</v>
@@ -23867,7 +23669,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.592439695084982</v>
+        <v>1.573978899386826</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.051246505711438</v>
@@ -23956,7 +23758,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594697884866174</v>
+        <v>1.581556550323951</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.206167330896822</v>
@@ -24045,7 +23847,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.613282205497558</v>
+        <v>1.598284638112042</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.731982754970044</v>
@@ -24134,7 +23936,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.606404397345734</v>
+        <v>1.593320926603996</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.980222974400784</v>
@@ -24223,7 +24025,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.611861584767037</v>
+        <v>1.598879121561497</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.236975869892345</v>
@@ -24312,7 +24114,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.599921065568647</v>
+        <v>1.592804386738917</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.998701187245197</v>
@@ -24401,7 +24203,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.606265173029908</v>
+        <v>1.595963215746053</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.2615409518101</v>
@@ -24490,7 +24292,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.611744540393795</v>
+        <v>1.602037083823968</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.967042235056144</v>
@@ -24579,7 +24381,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.626307269258083</v>
+        <v>1.612347875023816</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.919559455323494</v>
@@ -24668,7 +24470,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.600914279440383</v>
+        <v>1.588068190015575</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.426220929559622</v>
@@ -24757,7 +24559,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.55362636716918</v>
+        <v>1.559080842127931</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.325439576377568</v>
@@ -24846,7 +24648,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.55156378115627</v>
+        <v>1.55281246617227</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.419765858117815</v>
@@ -24935,7 +24737,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.54652852163362</v>
+        <v>1.546638053253101</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.435214301494288</v>
@@ -25024,7 +24826,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.546661398522356</v>
+        <v>1.542567751314449</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.359488317915251</v>
@@ -25113,7 +24915,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.551355069681253</v>
+        <v>1.546579563775268</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.372795395415808</v>
@@ -25202,7 +25004,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.54332370252906</v>
+        <v>1.537545843725032</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.277257782131064</v>
@@ -25291,7 +25093,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549440431983318</v>
+        <v>1.540283329517569</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.299682462664871</v>
@@ -25380,7 +25182,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.544713015880601</v>
+        <v>1.536327940771933</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.378865921537333</v>
@@ -25469,7 +25271,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.548802189640208</v>
+        <v>1.542780960703948</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.369612639411025</v>
@@ -25558,7 +25360,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.549001809647712</v>
+        <v>1.539015358008809</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.269354786180055</v>
@@ -25647,7 +25449,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.554300706925348</v>
+        <v>1.54166634332394</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.319484125409774</v>
@@ -25736,7 +25538,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.5466196767456</v>
+        <v>1.535594169892406</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.317886522041566</v>
@@ -25825,7 +25627,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.550150764107758</v>
+        <v>1.542042535488172</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.374006074467136</v>
@@ -25914,7 +25716,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551852532488379</v>
+        <v>1.544287042747566</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.339545308479606</v>
@@ -26003,7 +25805,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.607558935792126</v>
+        <v>1.589197786107268</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.382542916924816</v>
@@ -26092,7 +25894,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.650274767001096</v>
+        <v>1.624948448420031</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.856722627210317</v>
@@ -26181,7 +25983,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.661012057024279</v>
+        <v>1.636510996016897</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.432522845568683</v>
@@ -26270,7 +26072,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.672054729072954</v>
+        <v>1.646301414045523</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.313642768065419</v>
@@ -26359,7 +26161,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.654841664564386</v>
+        <v>1.636083803630674</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.428204097575863</v>
@@ -26448,7 +26250,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.650067042069959</v>
+        <v>1.632711777224811</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.049563536548456</v>
@@ -26537,7 +26339,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.650769218638593</v>
+        <v>1.628521111818945</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.355387488862553</v>
@@ -26626,7 +26428,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.630900808011101</v>
+        <v>1.616662189383997</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.936493619615561</v>
@@ -26715,7 +26517,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.656744013063804</v>
+        <v>1.635202150355003</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.740470881410934</v>
@@ -26804,7 +26606,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.679873625009223</v>
+        <v>1.657562223835482</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.758868022190361</v>
@@ -26893,7 +26695,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.683491229442935</v>
+        <v>1.662362785594481</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.788746928404121</v>
@@ -26982,7 +26784,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.692402732196901</v>
+        <v>1.668982290916346</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.772356240460623</v>
@@ -27071,7 +26873,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.708915395940801</v>
+        <v>1.689110730019567</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.804303659328596</v>
@@ -27160,7 +26962,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.708483426936733</v>
+        <v>1.687139510336651</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.796975248730115</v>
@@ -27249,7 +27051,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.708836997289814</v>
+        <v>1.684072940933336</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.801009052367428</v>
@@ -27338,7 +27140,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.722295319892385</v>
+        <v>1.697432992567654</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.807254683130143</v>
@@ -27427,7 +27229,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.711559742447332</v>
+        <v>1.685736472979596</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.818836588238738</v>
@@ -27516,7 +27318,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.697623018779806</v>
+        <v>1.674751314052974</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.819177230205853</v>
@@ -27605,7 +27407,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.704583565165607</v>
+        <v>1.678754600221179</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.810916085670795</v>
@@ -27694,7 +27496,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.701611448280237</v>
+        <v>1.675500352005705</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.841721438699875</v>
@@ -27783,7 +27585,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.688041323561302</v>
+        <v>1.668623786802023</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.822718925766108</v>
@@ -27872,7 +27674,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.680587953896265</v>
+        <v>1.656790170743693</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.844028734142295</v>
@@ -27961,7 +27763,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.6834899043059</v>
+        <v>1.668373158286255</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.852541076667944</v>
@@ -28050,7 +27852,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.672818829688051</v>
+        <v>1.664907647853823</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.263395307420775</v>
@@ -28139,7 +27941,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.652836714319526</v>
+        <v>1.639097968724996</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.090480912134743</v>
@@ -28228,7 +28030,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.644986795261282</v>
+        <v>1.632836846496936</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.151852363966419</v>
@@ -28317,7 +28119,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.6287647334775</v>
+        <v>1.616618766579496</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.961313914954002</v>
@@ -28603,7 +28405,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.744979377999487</v>
+        <v>1.764977152586645</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.26167422786668</v>
@@ -28692,7 +28494,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.796035648255198</v>
+        <v>1.809450465570604</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.079540444414389</v>
@@ -28781,7 +28583,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.820641579721642</v>
+        <v>1.832167996619939</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.192579938008641</v>
@@ -28870,7 +28672,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.843824098837897</v>
+        <v>1.852740240210925</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.210702966102274</v>
@@ -28959,7 +28761,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.835632913248521</v>
+        <v>1.844528904565635</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.165489151921152</v>
@@ -29048,7 +28850,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.840200357938462</v>
+        <v>1.848936391606835</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.140639324162517</v>
@@ -29137,7 +28939,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.845765925614854</v>
+        <v>1.850088635747391</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.13053891566368</v>
@@ -29226,7 +29028,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.861135490876814</v>
+        <v>1.856881652790551</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.21188425572223</v>
@@ -29315,7 +29117,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.766244519245397</v>
+        <v>1.760890907728384</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.355620569230233</v>
@@ -29404,7 +29206,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.708254394050692</v>
+        <v>1.7007413366617</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.872083493383383</v>
@@ -29493,7 +29295,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.657179967748856</v>
+        <v>1.639560999377129</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.247511190427863</v>
@@ -29582,7 +29384,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.649091366770402</v>
+        <v>1.619681063068338</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.930688974463552</v>
@@ -29671,7 +29473,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.670462996146125</v>
+        <v>1.643819731356559</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.244426062347601</v>
@@ -29760,7 +29562,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.66302778751952</v>
+        <v>1.631962248398716</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.249148198844374</v>
@@ -29849,7 +29651,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.654870975534973</v>
+        <v>1.618183528549588</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.595030760838162</v>
@@ -29938,7 +29740,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.664531394576346</v>
+        <v>1.62930362152516</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.202612120870413</v>
@@ -30027,7 +29829,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.670123020767612</v>
+        <v>1.631524400204767</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.367378258069276</v>
@@ -30116,7 +29918,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.680994386291078</v>
+        <v>1.636533214006006</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.382101835062021</v>
@@ -30205,7 +30007,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.66869436984298</v>
+        <v>1.628760040308112</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.235744538697639</v>
@@ -30294,7 +30096,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.661969283389057</v>
+        <v>1.623438724787343</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.370823409075824</v>
@@ -30383,7 +30185,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.666544394309245</v>
+        <v>1.628284011982043</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.563205284271673</v>
@@ -30472,7 +30274,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.669294592818829</v>
+        <v>1.633830509221167</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.125127056605553</v>
@@ -30561,7 +30363,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.675235138537795</v>
+        <v>1.63999425443628</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.18550475935973</v>
@@ -30650,7 +30452,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.669138259469023</v>
+        <v>1.632807320073671</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.550022107573947</v>
@@ -30739,7 +30541,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.678862275202076</v>
+        <v>1.645848512596577</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.380366635482779</v>
@@ -30828,7 +30630,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.682501444501852</v>
+        <v>1.648507185222175</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.618002276402884</v>
@@ -30917,7 +30719,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.686137579550203</v>
+        <v>1.660369754426299</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.061550233041149</v>
@@ -31006,7 +30808,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.689878433761693</v>
+        <v>1.666968350190057</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.639817428382513</v>
@@ -31095,7 +30897,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.68897306720929</v>
+        <v>1.671928745350223</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.218719604270287</v>
@@ -31184,7 +30986,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.705035410607441</v>
+        <v>1.685668809022989</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.104736104351721</v>
@@ -31273,7 +31075,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.697766715507065</v>
+        <v>1.679604377182698</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.198157959579321</v>
@@ -31362,7 +31164,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.697880526001328</v>
+        <v>1.680125401211523</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.08549309274385</v>
@@ -31451,7 +31253,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.70916903060131</v>
+        <v>1.688119366464045</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.862698433302711</v>
@@ -31540,7 +31342,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.712706821531153</v>
+        <v>1.690235419156262</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.534005435851174</v>
@@ -31629,7 +31431,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.653223432496156</v>
+        <v>1.639187373542947</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.24089849694412</v>
@@ -31718,7 +31520,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613625851702004</v>
+        <v>1.613207589789551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.275253314842402</v>
@@ -31807,7 +31609,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.616578441058884</v>
+        <v>1.61720441815047</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.370354411155968</v>
@@ -31896,7 +31698,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.622477368801826</v>
+        <v>1.624222960394164</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.296591881246947</v>
@@ -31985,7 +31787,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.625031409486889</v>
+        <v>1.629048837210757</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.333311383316019</v>
@@ -32074,7 +31876,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.627626992555412</v>
+        <v>1.635364567959812</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.367671106658686</v>
@@ -32163,7 +31965,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.628694306464913</v>
+        <v>1.637527066173782</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.29673930876437</v>
@@ -32252,7 +32054,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.628896399166425</v>
+        <v>1.633138478888534</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.301387942000699</v>
@@ -32341,7 +32143,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.620166152648299</v>
+        <v>1.62786816460407</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.30540236357796</v>
@@ -32430,7 +32232,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.623026987813269</v>
+        <v>1.630748841111112</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.265031014545312</v>
@@ -32519,7 +32321,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.62149947643168</v>
+        <v>1.631746509842099</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.381973222532559</v>
@@ -32608,7 +32410,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618075350516188</v>
+        <v>1.622926303613782</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.363299849728947</v>
@@ -32697,7 +32499,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.621405893581589</v>
+        <v>1.621608461751646</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.341524615473936</v>
@@ -32786,7 +32588,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.623610222994462</v>
+        <v>1.625483175461337</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.336089158844715</v>
@@ -32875,7 +32677,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.631565967372806</v>
+        <v>1.633000375287676</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.351372331174998</v>
@@ -32964,7 +32766,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.710677842960914</v>
+        <v>1.690478351246222</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.119448889588997</v>
@@ -33053,7 +32855,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.73838714078098</v>
+        <v>1.712005339459824</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.919431191626404</v>
@@ -33142,7 +32944,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.744265498507846</v>
+        <v>1.714347794336655</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.488975541217489</v>
@@ -33231,7 +33033,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.745222236475828</v>
+        <v>1.716442248972451</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.488813771991254</v>
@@ -33320,7 +33122,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.755769995822846</v>
+        <v>1.723132316984768</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.134113170405396</v>
@@ -33409,7 +33211,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.748943511120456</v>
+        <v>1.71700018499842</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.195248091990862</v>
@@ -33498,7 +33300,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.740613473887011</v>
+        <v>1.708763018037291</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.491788706379165</v>
@@ -33587,7 +33389,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.721306334036039</v>
+        <v>1.695186498021858</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.965741599416944</v>
@@ -33676,7 +33478,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.728377361637351</v>
+        <v>1.684373266892764</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.759200814983543</v>
@@ -33765,7 +33567,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.723749779084352</v>
+        <v>1.677809425263297</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.764399454286461</v>
@@ -33854,7 +33656,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.720718359509915</v>
+        <v>1.673182578247481</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.780071235578971</v>
@@ -33943,7 +33745,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.729355826285986</v>
+        <v>1.690267103169823</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.785862125646205</v>
@@ -34032,7 +33834,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.736105770539922</v>
+        <v>1.704091414820049</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.788845696673367</v>
@@ -34121,7 +33923,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.732174396900693</v>
+        <v>1.70313324920641</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.810889156704576</v>
@@ -34210,7 +34012,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.721329744310301</v>
+        <v>1.694981158792619</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.803212415542279</v>
@@ -34299,7 +34101,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.728695048742074</v>
+        <v>1.705316349365346</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.805761643725731</v>
@@ -34388,7 +34190,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.729319164941887</v>
+        <v>1.703667881650177</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.822154413352417</v>
@@ -34477,7 +34279,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.730663227151184</v>
+        <v>1.705861263805748</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.82268525761655</v>
@@ -34566,7 +34368,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.727920469626014</v>
+        <v>1.703832355951122</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.821347256819629</v>
@@ -34655,7 +34457,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.719212957301019</v>
+        <v>1.699248884148106</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.83732126671821</v>
@@ -34744,7 +34546,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.714905334507354</v>
+        <v>1.695790772717171</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.819986920517984</v>
@@ -34833,7 +34635,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.709659244883076</v>
+        <v>1.692458262083455</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.846312443839139</v>
@@ -34922,7 +34724,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.716712049122407</v>
+        <v>1.699779773127206</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.840499650601234</v>
@@ -35011,7 +34813,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.717997135633794</v>
+        <v>1.713691197690822</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.617872147923782</v>
@@ -35100,7 +34902,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.720458469114994</v>
+        <v>1.715022307793665</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.607268651591654</v>
@@ -35189,7 +34991,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.725155233616883</v>
+        <v>1.716165602928852</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.80692888101744</v>
@@ -35278,7 +35080,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.723250324426393</v>
+        <v>1.70870895117767</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.573658446582076</v>
@@ -35564,7 +35366,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.624402449490165</v>
+        <v>1.664221763656434</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.119729331736758</v>
@@ -35653,7 +35455,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.713764570526272</v>
+        <v>1.749307948570306</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.981040413014267</v>
@@ -35742,7 +35544,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.759240139129083</v>
+        <v>1.787506984743446</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.35479750455824</v>
@@ -35831,7 +35633,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.79486642708464</v>
+        <v>1.819842085317219</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.488559748156294</v>
@@ -35920,7 +35722,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.784731016394194</v>
+        <v>1.809756663618383</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.476429840365462</v>
@@ -36009,7 +35811,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.788943175838995</v>
+        <v>1.813779292890869</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.464505457604038</v>
@@ -36098,7 +35900,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.790514123650347</v>
+        <v>1.81193001527739</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.45551926576958</v>
@@ -36187,7 +35989,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.800469187443909</v>
+        <v>1.819305377546641</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.360877514331219</v>
@@ -36276,7 +36078,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.636074228867514</v>
+        <v>1.642308490143872</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.471589505053658</v>
@@ -36365,7 +36167,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.617870922124635</v>
+        <v>1.607093079774079</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.323838019046852</v>
@@ -36454,7 +36256,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.59233626308993</v>
+        <v>1.566116803688339</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.733865008266752</v>
@@ -36543,7 +36345,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.57220719001066</v>
+        <v>1.540032660877013</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.846795763191561</v>
@@ -36632,7 +36434,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.596200585956983</v>
+        <v>1.572920559126973</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.699736645831566</v>
@@ -36721,7 +36523,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.582747036482297</v>
+        <v>1.559419845610931</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.212944039150156</v>
@@ -36810,7 +36612,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.569133684499408</v>
+        <v>1.5454870067487</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.996698555140636</v>
@@ -36899,7 +36701,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.570213940238344</v>
+        <v>1.545420135771266</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.999269117952697</v>
@@ -36988,7 +36790,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.564163193276076</v>
+        <v>1.542278437323183</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.86429459916964</v>
@@ -37077,7 +36879,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.578892314310702</v>
+        <v>1.558079460354658</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.968591952537095</v>
@@ -37166,7 +36968,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.594749584278506</v>
+        <v>1.568355510108848</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.871890736411011</v>
@@ -37255,7 +37057,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.575682901520778</v>
+        <v>1.555870628553191</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.20175768975896</v>
@@ -37344,7 +37146,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560963084890976</v>
+        <v>1.542862906566585</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.88462201546153</v>
@@ -37433,7 +37235,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.562389345760297</v>
+        <v>1.551849195585642</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.94064190962893</v>
@@ -37522,7 +37324,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.574540260485038</v>
+        <v>1.565538863697648</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.236796462243287</v>
@@ -37611,7 +37413,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.562879322823956</v>
+        <v>1.558246560548844</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.162201866594607</v>
@@ -37700,7 +37502,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.55961122795183</v>
+        <v>1.556780183384969</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.070126725336916</v>
@@ -37789,7 +37591,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.555255094884238</v>
+        <v>1.550219429261199</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.946688475797385</v>
@@ -37878,7 +37680,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.567483816708757</v>
+        <v>1.559808090103495</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.056173619049936</v>
@@ -37967,7 +37769,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.57221253358878</v>
+        <v>1.568782163643422</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.884690029419735</v>
@@ -38056,7 +37858,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.564143887641122</v>
+        <v>1.559683765570816</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.172979361052494</v>
@@ -38145,7 +37947,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.559861941662465</v>
+        <v>1.557196601009591</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.143738225412546</v>
@@ -38234,7 +38036,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.560747221788823</v>
+        <v>1.560636456279855</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.79720499329475</v>
@@ -38323,7 +38125,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.556997197986431</v>
+        <v>1.554723566431836</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.032766043938667</v>
@@ -38412,7 +38214,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.549441396398253</v>
+        <v>1.546272867380386</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.095846040003707</v>
@@ -38501,7 +38303,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.545412773471044</v>
+        <v>1.545818641514358</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.733850324091517</v>
@@ -38590,7 +38392,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.517102439037195</v>
+        <v>1.518226427328115</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.321406534525572</v>
@@ -38679,7 +38481,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.480048460959982</v>
+        <v>1.489906023312759</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.241764889839196</v>
@@ -38768,7 +38570,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.480280748250867</v>
+        <v>1.488301913154515</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.301776883511106</v>
@@ -38857,7 +38659,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.478518256397385</v>
+        <v>1.483945923132808</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.343509754339475</v>
@@ -38946,7 +38748,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.486183074601241</v>
+        <v>1.492732342647365</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.297395275118546</v>
@@ -39035,7 +38837,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.491408412594612</v>
+        <v>1.493650855106754</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.308727893928798</v>
@@ -39124,7 +38926,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.496443420296837</v>
+        <v>1.49820606823613</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.310305658922182</v>
@@ -39213,7 +39015,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.494677756959782</v>
+        <v>1.498723524977656</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.346110092402279</v>
@@ -39302,7 +39104,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.499740988598042</v>
+        <v>1.497625171403922</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.311293781619778</v>
@@ -39391,7 +39193,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.500114729619498</v>
+        <v>1.499241201013733</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.291668189438715</v>
@@ -39480,7 +39282,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.502433089008411</v>
+        <v>1.502349401326667</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.281300584300595</v>
@@ -39569,7 +39371,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.513119660560159</v>
+        <v>1.509521873082665</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.187990999542154</v>
@@ -39658,7 +39460,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.506119632987225</v>
+        <v>1.505420588586565</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.335119165555829</v>
@@ -39747,7 +39549,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.502563835104501</v>
+        <v>1.498718712479661</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.216094632411499</v>
@@ -39836,7 +39638,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.505427083083789</v>
+        <v>1.50125272042028</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.19160727916557</v>
@@ -39925,7 +39727,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.552079491013358</v>
+        <v>1.537246401425914</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.496986562371493</v>
@@ -40014,7 +39816,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.589901000590378</v>
+        <v>1.568634378621287</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.935962535897291</v>
@@ -40103,7 +39905,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.560573936994132</v>
+        <v>1.545381560589865</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.876134804499431</v>
@@ -40192,7 +39994,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.558910318591147</v>
+        <v>1.544711435720692</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.736446565915876</v>
@@ -40281,7 +40083,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.553853565690003</v>
+        <v>1.538788481938097</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.94492314476055</v>
@@ -40370,7 +40172,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.547311498220297</v>
+        <v>1.539220839694023</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.889515438574494</v>
@@ -40459,7 +40261,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.525003183322283</v>
+        <v>1.519922069531201</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.781119221356054</v>
@@ -40548,7 +40350,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.525553287653898</v>
+        <v>1.519423360631357</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.926791653087015</v>
@@ -40637,7 +40439,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.531433244793026</v>
+        <v>1.521787471587472</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.800496395755384</v>
@@ -40726,7 +40528,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.54545715701839</v>
+        <v>1.537053474478978</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.840002253474834</v>
@@ -40815,7 +40617,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.556654624362631</v>
+        <v>1.547768124140702</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.865498827772908</v>
@@ -40904,7 +40706,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.554432806812504</v>
+        <v>1.550529403953371</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.88529466901349</v>
@@ -40993,7 +40795,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.583963661942482</v>
+        <v>1.582797503563746</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.892690040642176</v>
@@ -41082,7 +40884,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.578655474914116</v>
+        <v>1.579113304651677</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.956825516257031</v>
@@ -41171,7 +40973,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.584948599979759</v>
+        <v>1.588169060018094</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.950118426750094</v>
@@ -41260,7 +41062,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.588964214798253</v>
+        <v>1.592933479208208</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.95821518083631</v>
@@ -41349,7 +41151,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.569758417232128</v>
+        <v>1.575424517332447</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.96490975203655</v>
@@ -41438,7 +41240,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.590890560538798</v>
+        <v>1.592711300803062</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.013485498698831</v>
@@ -41527,7 +41329,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.607529855554618</v>
+        <v>1.608728337684588</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.975779985941307</v>
@@ -41616,7 +41418,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.6086811763189</v>
+        <v>1.613056490465888</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.962075736480051</v>
@@ -41705,7 +41507,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.60353638200589</v>
+        <v>1.608027794168883</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.989819809182654</v>
@@ -41794,7 +41596,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.625896922284615</v>
+        <v>1.628869542941323</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.000193144436541</v>
@@ -41883,7 +41685,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.626397612643631</v>
+        <v>1.630464174707666</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.001134475913014</v>
@@ -41972,7 +41774,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.628432500233419</v>
+        <v>1.63630480956268</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.01243228025525</v>
@@ -42061,7 +41863,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.616268372412757</v>
+        <v>1.622358687902547</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.743069397062546</v>
@@ -42150,7 +41952,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.605712540470362</v>
+        <v>1.618050564025065</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.929904051313311</v>
@@ -42239,7 +42041,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.61361325949601</v>
+        <v>1.623149217589257</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.139521562278802</v>
@@ -42525,7 +42327,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.393673674695779</v>
+        <v>1.405108400298236</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.834285053346167</v>
@@ -42614,7 +42416,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.443101040991038</v>
+        <v>1.456849709035792</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.761399708521113</v>
@@ -42703,7 +42505,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.470710124066641</v>
+        <v>1.485436651368554</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.658006971016017</v>
@@ -42792,7 +42594,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.529444480042924</v>
+        <v>1.542646214646369</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.274406450569269</v>
@@ -42881,7 +42683,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.534125353759482</v>
+        <v>1.542401060829517</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.331096812723903</v>
@@ -42970,7 +42772,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.558055839645433</v>
+        <v>1.564330051070295</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.271729723625358</v>
@@ -43059,7 +42861,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.57793318827707</v>
+        <v>1.580690231321613</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.167409506754408</v>
@@ -43148,7 +42950,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.561686961795693</v>
+        <v>1.568999360893118</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.361787140614566</v>
@@ -43237,7 +43039,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.503768498989785</v>
+        <v>1.509568387567656</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.671698301870737</v>
@@ -43326,7 +43128,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.455523712865645</v>
+        <v>1.456026152314724</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.470725907281591</v>
@@ -43415,7 +43217,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.438726581624254</v>
+        <v>1.434713699330938</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.418116278900431</v>
@@ -43504,7 +43306,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.440993934215171</v>
+        <v>1.433584143233836</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.252275466318846</v>
@@ -43593,7 +43395,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.449195555584251</v>
+        <v>1.448060190095305</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.216556510247236</v>
@@ -43682,7 +43484,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.47819752767454</v>
+        <v>1.47272581690433</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.36907001653624</v>
@@ -43771,7 +43573,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.500667149696722</v>
+        <v>1.497263399187871</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.293849166929714</v>
@@ -43860,7 +43662,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.502519300962557</v>
+        <v>1.500712557349193</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.304587218766279</v>
@@ -43949,7 +43751,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.495591554537114</v>
+        <v>1.489087979644762</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.308905525021839</v>
@@ -44038,7 +43840,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.516761441508553</v>
+        <v>1.508056682106957</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.394455012765678</v>
@@ -44127,7 +43929,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.506952665981406</v>
+        <v>1.498821846308903</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.255004234088467</v>
@@ -44216,7 +44018,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.487713925644162</v>
+        <v>1.484377924343862</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.476645826376088</v>
@@ -44305,7 +44107,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.490079359343468</v>
+        <v>1.488152034282983</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.428551689164033</v>
@@ -44394,7 +44196,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.510840495605055</v>
+        <v>1.511796763070191</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.236141504264837</v>
@@ -44483,7 +44285,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.5243328320365</v>
+        <v>1.529624855895564</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.418921436344492</v>
@@ -44572,7 +44374,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.501452444766568</v>
+        <v>1.508937956748413</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.436425209200579</v>
@@ -44661,7 +44463,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.522692584118597</v>
+        <v>1.528422508970818</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.441786867981048</v>
@@ -44750,7 +44552,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.520199748380407</v>
+        <v>1.527786407683284</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.506677029212286</v>
@@ -44839,7 +44641,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.545169772014674</v>
+        <v>1.555924734366706</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.556557685656486</v>
@@ -44928,7 +44730,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.541645994239192</v>
+        <v>1.552345822889904</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.535029103321974</v>
@@ -45017,7 +44819,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.545498996496156</v>
+        <v>1.560890396687658</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.462529719693636</v>
@@ -45106,7 +44908,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.554226670829274</v>
+        <v>1.56753506070241</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.499509047261635</v>
@@ -45195,7 +44997,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.557280446179139</v>
+        <v>1.575497038457299</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.449305106344994</v>
@@ -45284,7 +45086,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.569338564346811</v>
+        <v>1.594316504581809</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.422836464188201</v>
@@ -45373,7 +45175,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.572412093325567</v>
+        <v>1.59497382010537</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.330935367740841</v>
@@ -45462,7 +45264,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.589909076877033</v>
+        <v>1.615296394339425</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.648111688070872</v>
@@ -45551,7 +45353,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.460790871967827</v>
+        <v>1.464936040646915</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.602730175011432</v>
@@ -45640,7 +45442,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.350185580638585</v>
+        <v>1.378544277959742</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.622905966524752</v>
@@ -45729,7 +45531,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.336405694840163</v>
+        <v>1.36515574827317</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.599403117344159</v>
@@ -45818,7 +45620,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.338031676814274</v>
+        <v>1.369691789957058</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.623213151050631</v>
@@ -45907,7 +45709,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.343423363091969</v>
+        <v>1.376076659902799</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.6114539741533</v>
@@ -45996,7 +45798,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.34490162512798</v>
+        <v>1.379495520400218</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.612355554464365</v>
@@ -46085,7 +45887,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.352722955419094</v>
+        <v>1.38935734636446</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.602661612811893</v>
@@ -46174,7 +45976,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.35382379618984</v>
+        <v>1.388968961680352</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.599135250911898</v>
@@ -46263,7 +46065,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.351923192166345</v>
+        <v>1.386437116770454</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.602746286104187</v>
@@ -46352,7 +46154,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.347531652746435</v>
+        <v>1.382981277351077</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.603134858835897</v>
@@ -46441,7 +46243,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.346124750560321</v>
+        <v>1.3821595907593</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.604644452325264</v>
@@ -46530,7 +46332,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.350913746227997</v>
+        <v>1.384824821284585</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.605902047520897</v>
@@ -46619,7 +46421,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.350905607684481</v>
+        <v>1.382675560997582</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.603018947859207</v>
@@ -46708,7 +46510,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.357488642195859</v>
+        <v>1.390486196028838</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.60845095630431</v>
@@ -46797,7 +46599,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.364940967111889</v>
+        <v>1.39703340365376</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.602595150005657</v>
@@ -46886,7 +46688,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.502544037447506</v>
+        <v>1.535535843803814</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.993816976603868</v>
@@ -46975,7 +46777,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.619759813340534</v>
+        <v>1.651961855061884</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.21629866364144</v>
@@ -47064,7 +46866,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.650301529596049</v>
+        <v>1.67816907123059</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.248476481406718</v>
@@ -47153,7 +46955,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.661080779545402</v>
+        <v>1.683839616728305</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.279612129981123</v>
@@ -47242,7 +47044,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.662060342474597</v>
+        <v>1.685519155176001</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.264857092210411</v>
@@ -47331,7 +47133,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.628684502688605</v>
+        <v>1.651866578566756</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.360749144302062</v>
@@ -47420,7 +47222,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.586548893165438</v>
+        <v>1.606096349555267</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.333251881401251</v>
@@ -47509,7 +47311,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.589343085217317</v>
+        <v>1.61252654922149</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.377582230336948</v>
@@ -47598,7 +47400,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.593863762344896</v>
+        <v>1.606288559982464</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.982971348485145</v>
@@ -47687,7 +47489,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.595565680200786</v>
+        <v>1.600826788258571</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.956897267840576</v>
@@ -47776,7 +47578,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.58897748309461</v>
+        <v>1.59244069789449</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.975590020872884</v>
@@ -47865,7 +47667,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.588817659201823</v>
+        <v>1.593776892912457</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.975156388590623</v>
@@ -47954,7 +47756,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.592777091002976</v>
+        <v>1.598813839353473</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.97571853624895</v>
@@ -48043,7 +47845,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.593236327781148</v>
+        <v>1.600568288871771</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.981195705408371</v>
@@ -48132,7 +47934,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.595431682680798</v>
+        <v>1.600788366144839</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.97777654186316</v>
@@ -48221,7 +48023,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.650062257076851</v>
+        <v>1.650807452484587</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.00762069031042</v>
@@ -48310,7 +48112,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.651758537523444</v>
+        <v>1.650817966113121</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.983645089824994</v>
@@ -48399,7 +48201,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.642871724977296</v>
+        <v>1.644506423411808</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.992113600783513</v>
@@ -48488,7 +48290,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.646683430837516</v>
+        <v>1.65038513175217</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.989148055905357</v>
@@ -48577,7 +48379,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.628015208546628</v>
+        <v>1.629208481565065</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.991277607027211</v>
@@ -48666,7 +48468,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.607902352247221</v>
+        <v>1.617462762051216</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.017660811474616</v>
@@ -48755,7 +48557,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.61165609467425</v>
+        <v>1.618413388889833</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.037944632669523</v>
@@ -48844,7 +48646,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.581360897929553</v>
+        <v>1.595855582246114</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.017404688556804</v>
@@ -48933,7 +48735,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.584912491392275</v>
+        <v>1.609877871266971</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.764104003419869</v>
@@ -49022,7 +48824,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.594372818802143</v>
+        <v>1.621361100311246</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.634596899556561</v>
@@ -49111,7 +48913,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.595653587595481</v>
+        <v>1.622869512808071</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.727976871877859</v>
@@ -49200,7 +49002,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.585869983683298</v>
+        <v>1.61046081742951</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.669771238250598</v>
